--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N2">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O2">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P2">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q2">
-        <v>9786.189976384836</v>
+        <v>10791.98559940456</v>
       </c>
       <c r="R2">
-        <v>88075.70978746351</v>
+        <v>97127.87039464104</v>
       </c>
       <c r="S2">
-        <v>0.0550862576707018</v>
+        <v>0.07284004100175223</v>
       </c>
       <c r="T2">
-        <v>0.05508625767070179</v>
+        <v>0.07284004100175225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.259691</v>
       </c>
       <c r="N3">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O3">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P3">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q3">
-        <v>23.713673837266</v>
+        <v>26.687813106103</v>
       </c>
       <c r="R3">
-        <v>213.423064535394</v>
+        <v>240.190317954927</v>
       </c>
       <c r="S3">
-        <v>0.0001334837715669587</v>
+        <v>0.0001801282426658259</v>
       </c>
       <c r="T3">
-        <v>0.0001334837715669587</v>
+        <v>0.000180128242665826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N4">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O4">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P4">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q4">
-        <v>1001.008405404122</v>
+        <v>485.7320993716559</v>
       </c>
       <c r="R4">
-        <v>9009.075648637094</v>
+        <v>4371.588894344904</v>
       </c>
       <c r="S4">
-        <v>0.005634655272756106</v>
+        <v>0.00327842783964155</v>
       </c>
       <c r="T4">
-        <v>0.005634655272756105</v>
+        <v>0.003278427839641551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N5">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O5">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P5">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q5">
-        <v>1423.757494445924</v>
+        <v>1682.034449767441</v>
       </c>
       <c r="R5">
-        <v>12813.81745001331</v>
+        <v>15138.31004790697</v>
       </c>
       <c r="S5">
-        <v>0.008014301008758258</v>
+        <v>0.01135281891908567</v>
       </c>
       <c r="T5">
-        <v>0.008014301008758256</v>
+        <v>0.01135281891908567</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N6">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O6">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P6">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q6">
-        <v>63328.70437594804</v>
+        <v>62054.6274168235</v>
       </c>
       <c r="R6">
-        <v>569958.3393835323</v>
+        <v>558491.6467514115</v>
       </c>
       <c r="S6">
-        <v>0.356475945758606</v>
+        <v>0.41883502936098</v>
       </c>
       <c r="T6">
-        <v>0.3564759457586059</v>
+        <v>0.41883502936098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>1.259691</v>
       </c>
       <c r="N7">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O7">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P7">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q7">
         <v>153.456681684269</v>
@@ -883,10 +883,10 @@
         <v>1381.110135158421</v>
       </c>
       <c r="S7">
-        <v>0.000863804435531028</v>
+        <v>0.001035749249562724</v>
       </c>
       <c r="T7">
-        <v>0.0008638044355310279</v>
+        <v>0.001035749249562724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N8">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O8">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P8">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q8">
-        <v>6477.757486483511</v>
+        <v>2792.991537401852</v>
       </c>
       <c r="R8">
-        <v>58299.8173783516</v>
+        <v>25136.92383661667</v>
       </c>
       <c r="S8">
-        <v>0.03646316072851966</v>
+        <v>0.01885117583117631</v>
       </c>
       <c r="T8">
-        <v>0.03646316072851966</v>
+        <v>0.01885117583117631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N9">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O9">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P9">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q9">
-        <v>9213.464860827746</v>
+        <v>9671.808780799265</v>
       </c>
       <c r="R9">
-        <v>82921.1837474497</v>
+        <v>87046.27902719338</v>
       </c>
       <c r="S9">
-        <v>0.05186240003395121</v>
+        <v>0.06527945591341373</v>
       </c>
       <c r="T9">
-        <v>0.05186240003395121</v>
+        <v>0.06527945591341373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N10">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O10">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P10">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q10">
-        <v>23407.15617606391</v>
+        <v>18953.05306586601</v>
       </c>
       <c r="R10">
-        <v>210664.4055845751</v>
+        <v>170577.4775927941</v>
       </c>
       <c r="S10">
-        <v>0.1317583900950739</v>
+        <v>0.1279228136203441</v>
       </c>
       <c r="T10">
-        <v>0.1317583900950739</v>
+        <v>0.1279228136203441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.259691</v>
       </c>
       <c r="N11">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O11">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P11">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q11">
-        <v>56.71969053907299</v>
+        <v>46.86955272065899</v>
       </c>
       <c r="R11">
-        <v>510.4772148516569</v>
+        <v>421.8259744859309</v>
       </c>
       <c r="S11">
-        <v>0.0003192739457927496</v>
+        <v>0.0003163440231142407</v>
       </c>
       <c r="T11">
-        <v>0.0003192739457927495</v>
+        <v>0.0003163440231142409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N12">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O12">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P12">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q12">
-        <v>2394.267854536648</v>
+        <v>853.050272388562</v>
       </c>
       <c r="R12">
-        <v>21548.41069082983</v>
+        <v>7677.452451497059</v>
       </c>
       <c r="S12">
-        <v>0.0134772834255162</v>
+        <v>0.005757625994308878</v>
       </c>
       <c r="T12">
-        <v>0.0134772834255162</v>
+        <v>0.005757625994308881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N13">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O13">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P13">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q13">
-        <v>3405.422754898157</v>
+        <v>2954.015078264743</v>
       </c>
       <c r="R13">
-        <v>30648.80479408341</v>
+        <v>26586.13570438269</v>
       </c>
       <c r="S13">
-        <v>0.01916905310510744</v>
+        <v>0.01993799727016594</v>
       </c>
       <c r="T13">
-        <v>0.01916905310510744</v>
+        <v>0.01993799727016594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N14">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O14">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P14">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q14">
-        <v>45577.1948448067</v>
+        <v>31324.25012500177</v>
       </c>
       <c r="R14">
-        <v>410194.7536032603</v>
+        <v>281918.2511250159</v>
       </c>
       <c r="S14">
-        <v>0.2565530717457301</v>
+        <v>0.2114216742079567</v>
       </c>
       <c r="T14">
-        <v>0.2565530717457301</v>
+        <v>0.2114216742079567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.259691</v>
       </c>
       <c r="N15">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O15">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P15">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q15">
-        <v>110.441625962235</v>
+        <v>77.46264348897898</v>
       </c>
       <c r="R15">
-        <v>993.9746336601149</v>
+        <v>697.1637914008109</v>
       </c>
       <c r="S15">
-        <v>0.0006216735910510496</v>
+        <v>0.0005228307688024213</v>
       </c>
       <c r="T15">
-        <v>0.0006216735910510495</v>
+        <v>0.0005228307688024214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N16">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O16">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P16">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q16">
-        <v>4661.993609820231</v>
+        <v>1409.860459348597</v>
       </c>
       <c r="R16">
-        <v>41957.94248838208</v>
+        <v>12688.74413413738</v>
       </c>
       <c r="S16">
-        <v>0.02624226403426031</v>
+        <v>0.009515792318270622</v>
       </c>
       <c r="T16">
-        <v>0.0262422640342603</v>
+        <v>0.009515792318270624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N17">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O17">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P17">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q17">
-        <v>6630.861744223702</v>
+        <v>4882.184778516761</v>
       </c>
       <c r="R17">
-        <v>59677.75569801332</v>
+        <v>43939.66300665084</v>
       </c>
       <c r="S17">
-        <v>0.03732498137707745</v>
+        <v>0.03295209543875897</v>
       </c>
       <c r="T17">
-        <v>0.03732498137707745</v>
+        <v>0.03295209543875897</v>
       </c>
     </row>
   </sheetData>
